--- a/public/files/opening-times.xlsx
+++ b/public/files/opening-times.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andystevenson/dev/wwsc.club/public/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD506C77-E6DB-A746-A0EE-711B67CAA9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8402D3B-8470-7545-8EBB-3D5B4A234A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{65280D4E-DF0B-DF4A-8781-930816648B08}"/>
   </bookViews>
@@ -648,7 +648,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -868,7 +868,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D7" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="E7" s="6">
         <v>0.95833333333333337</v>

--- a/public/files/opening-times.xlsx
+++ b/public/files/opening-times.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andystevenson/dev/wwsc.club/public/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8402D3B-8470-7545-8EBB-3D5B4A234A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9934AF84-8E3E-ED4D-9F4C-0EEC01F1C9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{65280D4E-DF0B-DF4A-8781-930816648B08}"/>
   </bookViews>
@@ -648,7 +648,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -900,7 +900,7 @@
         <v>0.375</v>
       </c>
       <c r="C8" s="6">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="D8" s="5">
         <v>0.41666666666666669</v>
@@ -935,7 +935,7 @@
         <v>0.375</v>
       </c>
       <c r="C9" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="D9" s="7">
         <v>0.41666666666666669</v>

--- a/public/files/opening-times.xlsx
+++ b/public/files/opening-times.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andystevenson/dev/wwsc.club/public/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9934AF84-8E3E-ED4D-9F4C-0EEC01F1C9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7F9A4A-1AEC-3F4B-8491-DC75BC922EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{65280D4E-DF0B-DF4A-8781-930816648B08}"/>
   </bookViews>
@@ -648,7 +648,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -868,7 +868,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D7" s="5">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E7" s="6">
         <v>0.95833333333333337</v>

--- a/public/files/opening-times.xlsx
+++ b/public/files/opening-times.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andystevenson/dev/wwsc.club/public/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7F9A4A-1AEC-3F4B-8491-DC75BC922EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB2A816-956B-334E-AE0E-3EAF1279550B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{65280D4E-DF0B-DF4A-8781-930816648B08}"/>
   </bookViews>
@@ -648,7 +648,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -941,7 +941,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E9" s="8">
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="F9" s="7">
         <v>0.5</v>
